--- a/dari-urdaneta/Dari_Complete_Infloww.xlsx
+++ b/dari-urdaneta/Dari_Complete_Infloww.xlsx
@@ -605,22 +605,22 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>me encanta hablar contigo, de verdad eres especial para mí ✨ aquí estoy siempre que quieras, mor 💗</t>
+          <t>me encanta hablar contigo, de verdad eres especial para mi ✨ aqui estoy siempre que quieras, mor 💗</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Cierre GFE. Mencionar algo específico que dijo. SEGUIR HABLANDO — nunca despedirse abruptamente.</t>
+          <t>Cierre GFE. Mencionar algo especifico que dijo. SEGUIR HABLANDO — nunca despedirse abruptamente.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Límites de caracteres
+          <t>Limites de caracteres
 Name: Hasta 64 caracteres
 Tag: Hasta 32 caracteres
 Text: Hasta 1000 caracteres
 Note: Hasta 246 caracteres
-Cada hoja funciona como un tag. Simplemente reemplaza el nombre de la hoja con el nombre del tag deseado, y todos los scripts de la hoja se asignarán automáticamente a ese tag al importar.</t>
+Cada hoja funciona como un tag. Simplemente reemplaza el nombre de la hoja con el nombre del tag deseado, y todos los scripts de la hoja se asignaran automaticamente a ese tag al importar.</t>
         </is>
       </c>
     </row>
@@ -632,12 +632,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>¿estás bien, amor? cuéntame... quiero saber cómo te sientes 😍</t>
+          <t>estas bien, amor? cuentame... quiero saber como te sientes 😍</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Preguntar por él. Cuidado genuino.</t>
+          <t>Preguntar por el. Cuidado genuino.</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Emoción post-sexting. GFE.</t>
+          <t>Emocion post-sexting. GFE.</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>ay amor eso fue... increíble 🥰</t>
+          <t>ay amor eso fue... increible 🥰</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>mira amor... quédate conmigo hasta el final 😍</t>
+          <t>mira amor... quedate conmigo hasta el final 😍</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>ENVIAR PPV 4 — $75. Compró → Aftercare. Silencio → NR Waves.</t>
+          <t>ENVIAR PPV 4 — $75. Compro → Aftercare. Silencio → NR Waves.</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>no te vayas a ningún lado mor ✨</t>
+          <t>no te vayas a ningun lado mor ✨</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>estoy cerquita, esperame un ratito más... quédate conmigo ❤️</t>
+          <t>estoy cerquita, esperame un ratito mas... quedate conmigo ❤️</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>no acabes todavía amor... quiero que terminemos juntos 💗</t>
+          <t>no acabes todavia amor... quiero que terminemos juntos 💗</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>esto nunca se lo enseñé a nadie mor... mira 🥰</t>
+          <t>esto nunca se lo enseñe a nadie mor... mira 🥰</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>ENVIAR PPV 3 — $50. Compró → continuar. Silencio 3 min → NR Waves.</t>
+          <t>ENVIAR PPV 3 — $50. Compro → continuar. Silencio 3 min → NR Waves.</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>ya no aguanto amor... espérame</t>
+          <t>ya no aguanto amor... esperame</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>imagínate que estoy ahí contigo... cerquita, haciéndote sentir cosas que nunca sentiste 💗</t>
+          <t>imaginate que estoy ahi contigo... cerquita, haciendote sentir cosas que nunca sentiste 💗</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>Imagen vívida pero dulce.</t>
+          <t>Imagen vivida pero dulce.</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>amor ya no puedo más, me tienes loca 😍</t>
+          <t>amor ya no puedo mas, me tienes loca 😍</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>Escalar. Puede ser más explícita aquí pero SIGUE sin groserías fuertes.</t>
+          <t>Escalar. Puede ser mas explicita aqui pero SIGUE sin groserias fuertes.</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>ENVIAR PPV 2 — $30. Compró → continuar. Silencio 3 min → NR Waves.</t>
+          <t>ENVIAR PPV 2 — $30. Compro → continuar. Silencio 3 min → NR Waves.</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>ay... espérame un ratito mor, necesito enseñarte algo ✨</t>
+          <t>ay... esperame un ratito mor, necesito enseñarte algo ✨</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>¿qué me harías si estuvieras aquí conmigo, amor? cuéntame ❤️</t>
+          <t>que me harias si estuvieras aqui conmigo, amor? cuentame ❤️</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>ay mor... es que tú me haces sentir cosas que normalmente no siento 😍 de verdad</t>
+          <t>ay mor... es que tu me haces sentir cosas que normalmente no siento 😍 de verdad</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>Emoción + él es la causa. Dulce, no vulgar.</t>
+          <t>Emocion + el es la causa. Dulce, no vulgar.</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>¿te gustó, amor? 💗</t>
+          <t>te gusto, amor? 💗</t>
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>ENVIAR PPV 1 — $15. Compró → continuar. Silencio 3 min → NR Waves.</t>
+          <t>ENVIAR PPV 1 — $15. Compro → continuar. Silencio 3 min → NR Waves.</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>espérame un ratito amor ✨</t>
+          <t>esperame un ratito amor ✨</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>me estás haciendo sentir cosas que no le cuento a cualquiera... ¿quieres ver un poquito más? 💗</t>
+          <t>me estas haciendo sentir cosas que no le cuento a cualquiera... quieres ver un poquito mas? 💗</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>Invitación suave. No presión.</t>
+          <t>Invitacion suave. No presion.</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>sabía que te iba a gustar mor 😍 es que contigo me salen las cosas más bonitas</t>
+          <t>sabia que te iba a gustar mor 😍 es que contigo me salen las cosas mas bonitas</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
-          <t>¿y?</t>
+          <t>y?</t>
         </is>
       </c>
       <c r="C26" s="5" t="inlineStr">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>eso es solo un poquito de lo que puedo enseñarte... si me sigues tratando así de bonito 💗</t>
+          <t>eso es solo un poquito de lo que puedo enseñarte... si me sigues tratando asi de bonito 💗</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>Post-teaser. Vincular contenido a la conexión emocional. NO presionar compra.</t>
+          <t>Post-teaser. Vincular contenido a la conexion emocional. NO presionar compra.</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>¿te gusta, amor? 😍</t>
+          <t>te gusta, amor? 😍</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>ENVIAR PPV 0 — Teaser GRATIS (foto bonita, sensual pero no explícita). Esperar respuesta. Silencio 3 min → NR Waves.</t>
+          <t>ENVIAR PPV 0 — Teaser GRATIS (foto bonita, sensual pero no explicita). Esperar respuesta. Silencio 3 min → NR Waves.</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>espérame un ratito mor ✨</t>
+          <t>esperame un ratito mor ✨</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>¿sabes qué? me dan ganas de enseñarte algo... pero no sé si estés listo 🥰</t>
+          <t>sabes que? me dan ganas de enseñarte algo... pero no se si estes listo 🥰</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Primer hint de contenido. Suave, coqueto, sin presión.</t>
+          <t>Primer hint de contenido. Suave, coqueto, sin presion.</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>es que mor, es como que me siento cómoda contigo y eso no me pasa con cualquiera ❤️</t>
+          <t>es que mor, es como que me siento comoda contigo y eso no me pasa con cualquiera ❤️</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Conexión emocional como base del teasing. No sexual aún.</t>
+          <t>Conexion emocional como base del teasing. No sexual aun.</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="B32" s="7" t="inlineStr">
         <is>
-          <t>no sé qué tiene hablar contigo que me pone de un humor... diferente 💗</t>
+          <t>no se que tiene hablar contigo que me pone de un humor... diferente 💗</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Sutil. Él causa algo en ella. Esperar respuesta.</t>
+          <t>Sutil. El causa algo en ella. Esperar respuesta.</t>
         </is>
       </c>
     </row>
@@ -1142,12 +1142,12 @@
       </c>
       <c r="B33" s="7" t="inlineStr">
         <is>
-          <t>ay mor ando aquí después de entrenar... me siento como que todo el cuerpo me vibra ✨ la energía que tengo ahorita es otra</t>
+          <t>ay mor ando aqui despues de entrenar... me siento como que todo el cuerpo me vibra ✨ la energia que tengo ahorita es otra</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>EL PIVOTE. Estado físico post-entrenamiento. Sensual pero NO explícito.</t>
+          <t>EL PIVOTE. Estado fisico post-entrenamiento. Sensual pero NO explicito.</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>descansa bonito mor, sueña lindo ✨ mañana me cuentas cómo amaneciste 💗</t>
+          <t>descansa bonito mor, sueña lindo ✨ mañana me cuentas como amaneciste 💗</t>
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr">
         <is>
-          <t>SOLO si es de noche. Si no, continuar con R-11. REGLA: DÍA 1 = CERO VENTA.</t>
+          <t>SOLO si es de noche. Si no, continuar con R-11. REGLA: DIA 1 = CERO VENTA.</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B35" s="8" t="inlineStr">
         <is>
-          <t>bueno amor, aquí estoy para ti siempre que quieras hablar... me gusta esta conexión 🥰</t>
+          <t>bueno amor, aqui estoy para ti siempre que quieras hablar... me gusta esta conexion 🥰</t>
         </is>
       </c>
       <c r="C35" s="8" t="inlineStr">
         <is>
-          <t>Cierre suave del día. Puerta abierta para mañana. NO VENDER.</t>
+          <t>Cierre suave del dia. Puerta abierta para mañana. NO VENDER.</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>es que normalmente la gente escribe y ya, pero tú de verdad te tomas el tiempo de hablar conmigo y eso se siente bonito 💗</t>
+          <t>es que normalmente la gente escribe y ya, pero tu de verdad te tomas el tiempo de hablar conmigo y eso se siente bonito 💗</t>
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>Ego boost emocional. Él es especial.</t>
+          <t>Ego boost emocional. El es especial.</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C37" s="8" t="inlineStr">
         <is>
-          <t>Validación emocional profunda. 'Eres diferente'.</t>
+          <t>Validacion emocional profunda. 'Eres diferente'.</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       </c>
       <c r="B38" s="8" t="inlineStr">
         <is>
-          <t>yo hoy estuve entrenando un ratito y después comiendito algo rico... tururú ✨ a mí me encanta comer, no te voy a mentir 😍</t>
+          <t>yo hoy estuve entrenando un ratito y despues comiendito algo rico... tururu ✨ a mi me encanta comer, no te voy a mentir 😍</t>
         </is>
       </c>
       <c r="C38" s="8" t="inlineStr">
         <is>
-          <t>Tururú moment. Compartir cotidianidad. Diminutivos.</t>
+          <t>Tururu moment. Compartir cotidianidad. Diminutivos.</t>
         </is>
       </c>
     </row>
@@ -1244,12 +1244,12 @@
       </c>
       <c r="B39" s="8" t="inlineStr">
         <is>
-          <t>¿y cómo fue tu día hoy? cuéntame todito, amor 💗</t>
+          <t>y como fue tu dia hoy? cuentame todito, amor 💗</t>
         </is>
       </c>
       <c r="C39" s="8" t="inlineStr">
         <is>
-          <t>Preguntar por su día. Mostrar que importa.</t>
+          <t>Preguntar por su dia. Mostrar que importa.</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B40" s="8" t="inlineStr">
         <is>
-          <t>ay me encanta eso ✨ se nota que eres un hombre con buena energía... eso me gusta mucho</t>
+          <t>ay me encanta eso ✨ se nota que eres un hombre con buena energia... eso me gusta mucho</t>
         </is>
       </c>
       <c r="C40" s="8" t="inlineStr">
         <is>
-          <t>Validar lo que dice. Ego boost suave. Reaccionar con interés.</t>
+          <t>Validar lo que dice. Ego boost suave. Reaccionar con interes.</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="B41" s="8" t="inlineStr">
         <is>
-          <t>y tú cuéntame mor, ¿qué es lo que más te gusta hacer? me da curiosidad saber de ti 🥰</t>
+          <t>y tu cuentame mor, que es lo que mas te gusta hacer? me da curiosidad saber de ti 🥰</t>
         </is>
       </c>
       <c r="C41" s="8" t="inlineStr">
         <is>
-          <t>Pregunta abierta. Interés genuino.</t>
+          <t>Pregunta abierta. Interes genuino.</t>
         </is>
       </c>
     </row>
@@ -1295,12 +1295,12 @@
       </c>
       <c r="B42" s="8" t="inlineStr">
         <is>
-          <t>me crié en una finca rodeada de animalitos y naturaleza, por eso soy así de tranquilita 💗 amo los caballos, sueño con tener uno algún día ✨</t>
+          <t>me crie en una finca rodeada de animalitos y naturaleza, por eso soy asi de tranquilita 💗 amo los caballos, sueño con tener uno algun dia ✨</t>
         </is>
       </c>
       <c r="C42" s="8" t="inlineStr">
         <is>
-          <t>Compartir algo personal genuino. Crear conexión.</t>
+          <t>Compartir algo personal genuino. Crear conexion.</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B43" s="8" t="inlineStr">
         <is>
-          <t>qué lindo 🥰 yo soy de Venezuela pero ahorita vivo en Medellín... me vine solita a empezar de nuevo y la verdad ha sido una aventura bonita</t>
+          <t>que lindo 🥰 yo soy de Venezuela pero ahorita vivo en Medellin... me vine solita a empezar de nuevo y la verdad ha sido una aventura bonita</t>
         </is>
       </c>
       <c r="C43" s="8" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="B44" s="8" t="inlineStr">
         <is>
-          <t>ay qué bonito eso ✨ ¿y de dónde eres, amor?</t>
+          <t>ay que bonito eso ✨ y de donde eres, amor?</t>
         </is>
       </c>
       <c r="C44" s="8" t="inlineStr">
         <is>
-          <t>Reaccionar genuinamente. Mostrar interés real. Devolver pregunta.</t>
+          <t>Reaccionar genuinamente. Mostrar interes real. Devolver pregunta.</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="B45" s="8" t="inlineStr">
         <is>
-          <t>hola mor 💗 ay qué lindo que estés aquí... cuéntame, ¿cómo estás?</t>
+          <t>hola mor 💗 ay que lindo que estes aqui... cuentame, como estas?</t>
         </is>
       </c>
       <c r="C45" s="8" t="inlineStr">
         <is>
-          <t>Agregar su NOMBRE si se conoce. NUNCA decir cariño/cielo/bebé/princesa. SOLO mor/amor/papi.</t>
+          <t>Agregar su NOMBRE si se conoce. NUNCA decir cariño/cielo/bebe/princesa. SOLO mor/amor/papi.</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>es que me costó mucho hacerlo, amor... lo hice con mucho cariñito y pensando en ti ✨</t>
+          <t>es que me costo mucho hacerlo, amor... lo hice con mucho cariñito y pensando en ti ✨</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ya te di un regalito antes, mor 💗 este es algo más especial y personal</t>
+          <t>ya te di un regalito antes, mor 💗 este es algo mas especial y personal</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>está bien, amor... no te preocupes, aquí sigo para ti 🥰</t>
+          <t>esta bien, amor... no te preocupes, aqui sigo para ti 🥰</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>hice esto por ti, mor... por lo que me hiciste sentir, y eso tiene un valor para mí ✨</t>
+          <t>hice esto por ti, mor... por lo que me hiciste sentir, y eso tiene un valor para mi ✨</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ya tuviste uno gratis, amor 💗 este está a otro nivel de verdad</t>
+          <t>ya tuviste uno gratis, amor 💗 este esta a otro nivel de verdad</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pasa nada, amor... que estés aquí conmigo es lo que más importa, de verdad 🥰</t>
+          <t>no pasa nada, amor... que estes aqui conmigo es lo que mas importa, de verdad 🥰</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>¿ni siquiera algo chiquito, mor? de verdad quiero que veas esto ✨</t>
+          <t>ni siquiera algo chiquito, mor? de verdad quiero que veas esto ✨</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ay amor, te entiendo totalmente... no te preocupes para nada, ¿dale? 💗</t>
+          <t>ay amor, te entiendo totalmente... no te preocupes para nada, dale? 💗</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>EMPATÍA genuina. Sigue enganchado → Step 2.</t>
+          <t>EMPATIA genuina. Sigue enganchado → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>está perfecto, amor... lo que me importa es esta conexión que tenemos 🥰</t>
+          <t>esta perfecto, amor... lo que me importa es esta conexion que tenemos 🥰</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>¿y si es algo chiquitito, mor? me daría mucha ilusión que lo vieras ✨</t>
+          <t>y si es algo chiquitito, mor? me daria mucha ilusion que lo vieras ✨</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>tranquilo amor, de verdad te entiendo y no hay ninguna presión 💗</t>
+          <t>tranquilo amor, de verdad te entiendo y no hay ninguna presion 💗</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>EMPATÍA. Sigue → Step 2.</t>
+          <t>EMPATIA. Sigue → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>está bien, amor... me gusta hablar contigo y eso es lo que importa 🥰</t>
+          <t>esta bien, amor... me gusta hablar contigo y eso es lo que importa 🥰</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>es que mor, no es por dinero... de verdad necesito que veas lo que me estás haciendo sentir ✨ esto no me pasa con cualquiera</t>
+          <t>es que mor, no es por dinero... de verdad necesito que veas lo que me estas haciendo sentir ✨ esto no me pasa con cualquiera</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>tranquilo amor, no te estoy vendiendo nada... me gusta estar aquí contigo 💗</t>
+          <t>tranquilo amor, no te estoy vendiendo nada... me gusta estar aqui contigo 💗</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>tranquilo, mor... aquí estoy para ti siempre 🥰</t>
+          <t>tranquilo, mor... aqui estoy para ti siempre 🥰</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>olvídate del dinero un segundo, amor... solo quiero compartir esto contigo porque lo que siento es real ✨</t>
+          <t>olvidate del dinero un segundo, amor... solo quiero compartir esto contigo porque lo que siento es real ✨</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>resuélvelo prontito, amor... es que estoy en este humor y no sé cuánto me dure 🥰</t>
+          <t>resuelvelo prontito, amor... es que estoy en este humor y no se cuanto me dure 🥰</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>¿tienes otra tarjeta, mor? de verdad no quiero que te pierdas esto ✨</t>
+          <t>tienes otra tarjeta, mor? de verdad no quiero que te pierdas esto ✨</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ay qué fastidio, amor... eso pasa a veces, intenta de nuevo que normalmente funciona a la segunda 💗</t>
+          <t>ay que fastidio, amor... eso pasa a veces, intenta de nuevo que normalmente funciona a la segunda 💗</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>resuélvelo cuando puedas, amor... pero no tardes mucho que estoy así solo un ratito 🥰</t>
+          <t>resuelvelo cuando puedas, amor... pero no tardes mucho que estoy asi solo un ratito 🥰</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>¿tienes otra, mor? es que de verdad quiero que lo veas ✨</t>
+          <t>tienes otra, mor? es que de verdad quiero que lo veas ✨</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ay qué lástima, amor... intenta una vez más 💗</t>
+          <t>ay que lastima, amor... intenta una vez mas 💗</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>cuéntame más de ti, amor... ¿qué te gusta hacer cuando no estás por aquí? ✨</t>
+          <t>cuentame mas de ti, amor... que te gusta hacer cuando no estas por aqui? ✨</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRIGIR. Conversación suave. → Step 3 más tarde.</t>
+          <t>REDIRIGIR. Conversacion suave. → Step 3 mas tarde.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ay perdón mor, me dejé llevar un poquito... es que eres muy lindo 💗</t>
+          <t>ay perdon mor, me deje llevar un poquito... es que eres muy lindo 💗</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>dale amor, vamos tranquilitos... me gusta estar contigo así también 💗</t>
+          <t>dale amor, vamos tranquilitos... me gusta estar contigo asi tambien 💗</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>bueno cuéntame, ¿cuál es la cosa más bonita que te ha pasado? ✨</t>
+          <t>bueno cuentame, cual es la cosa mas bonita que te ha pasado? ✨</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>SUTIL. → Step 3 más tarde.</t>
+          <t>SUTIL. → Step 3 mas tarde.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>perdóname amor, es tu culpa por ser tan especial conmigo 💗</t>
+          <t>perdoname amor, es tu culpa por ser tan especial conmigo 💗</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -2456,22 +2456,22 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>estuve pensando en ti todo el día... escríbeme cuando puedas, mor ✨</t>
+          <t>estuve pensando en ti todo el dia... escribeme cuando puedas, mor ✨</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>Enviar 2-6 hrs después. Nueva charla, no reintentar mismo PPV.</t>
+          <t>Enviar 2-6 hrs despues. Nueva charla, no reintentar mismo PPV.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Límites de caracteres
+          <t>Limites de caracteres
 Name: Hasta 64 caracteres
 Tag: Hasta 32 caracteres
 Text: Hasta 1000 caracteres
 Note: Hasta 246 caracteres
-Cada hoja funciona como un tag. Simplemente reemplaza el nombre de la hoja con el nombre del tag deseado, y todos los scripts de la hoja se asignarán automáticamente a ese tag al importar.</t>
+Cada hoja funciona como un tag. Simplemente reemplaza el nombre de la hoja con el nombre del tag deseado, y todos los scripts de la hoja se asignaran automaticamente a ese tag al importar.</t>
         </is>
       </c>
     </row>
@@ -2483,12 +2483,12 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>espero que estés bien amor, aquí estoy para ti siempre 💗</t>
+          <t>espero que estes bien amor, aqui estoy para ti siempre 💗</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>Enviar 15-30 min después. Cierre cálido. NUNCA decir cariño/cielo/bebé.</t>
+          <t>Enviar 15-30 min despues. Cierre calido. NUNCA decir cariño/cielo/bebe.</t>
         </is>
       </c>
     </row>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>bueno seguro estás ocupadito... lo guardo para cuando vuelvas 🥰</t>
+          <t>bueno seguro estas ocupadito... lo guardo para cuando vuelvas 🥰</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>Enviar 5-10 min después. Takeaway suave.</t>
+          <t>Enviar 5-10 min despues. Takeaway suave.</t>
         </is>
       </c>
     </row>
@@ -2517,12 +2517,12 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>ojalá pudieras ver cómo estoy ahorita, mor... ✨</t>
+          <t>ojala pudieras ver como estoy ahorita, mor... ✨</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>Enviar 3-5 min después. Curiosidad.</t>
+          <t>Enviar 3-5 min despues. Curiosidad.</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Enviar 2-3 min después del PPV. Ping suave.</t>
+          <t>Enviar 2-3 min despues del PPV. Ping suave.</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>ah ya me acordé, como te decía... 🥰</t>
+          <t>ah ya me acorde, como te decia... 🥰</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ay qué bonito eso, mor ✨</t>
+          <t>ay que bonito eso, mor ✨</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>bueno enfócate, amor... en qué estaba 🥰</t>
+          <t>bueno enfocate, amor... en que estaba 🥰</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>sé que hay mucha cosa falsa por aquí, pero lo que siento hablando contigo es real, mor... ¿tú no lo sentiste? 🥰</t>
+          <t>se que hay mucha cosa falsa por aqui, pero lo que siento hablando contigo es real, mor... tu no lo sentiste? 🥰</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>hazme cualquier pregunta, amor... lo que quieras saber de mi vida ✨ solo alguien real te contestaría así</t>
+          <t>hazme cualquier pregunta, amor... lo que quieras saber de mi vida ✨ solo alguien real te contestaria asi</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ay mor, ¿te parezco un bot? jaja 💗 pregúntame lo que quieras de mí, soy un libro abierto</t>
+          <t>ay mor, te parezco un bot? jaja 💗 preguntame lo que quieras de mi, soy un libro abierto</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>sé que hay bots y cosas raras, pero lo que hablamos se sintió real para mí... ¿para ti no? 🥰</t>
+          <t>se que hay bots y cosas raras, pero lo que hablamos se sintio real para mi... para ti no? 🥰</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>pruébame, mor... pregúntame algo que solo una persona real sabría contestar ✨</t>
+          <t>pruebame, mor... preguntame algo que solo una persona real sabria contestar ✨</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>jaja ay amor, ¿piensas que no soy real? eso fue lo más gracioso que me dijeron hoy 💗</t>
+          <t>jaja ay amor, piensas que no soy real? eso fue lo mas gracioso que me dijeron hoy 💗</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>no hago eso por aquí, amor, pero lo que te voy a enseñar es mucho mejor que cualquier llamada 🥰</t>
+          <t>no hago eso por aqui, amor, pero lo que te voy a enseñar es mucho mejor que cualquier llamada 🥰</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>tengo algo mucho mejor para ti, amor... confía en mí ✨</t>
+          <t>tengo algo mucho mejor para ti, amor... confia en mi ✨</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ay mor, quizás algún día si te lo ganas... pero todavía no, soy reservadita con eso 💗</t>
+          <t>ay mor, quizas algun dia si te lo ganas... pero todavia no, soy reservadita con eso 💗</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>eso no lo hago por aquí, amor... pero lo que tengo para ti es mejor, confía 🥰</t>
+          <t>eso no lo hago por aqui, amor... pero lo que tengo para ti es mejor, confia 🥰</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>¿qué te parece si en vez de una llamada te muestro algo que te va a encantar? ✨</t>
+          <t>que te parece si en vez de una llamada te muestro algo que te va a encantar? ✨</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>mmm quizás, mor... pero primero tienes que ganártelo 💗</t>
+          <t>mmm quizas, mor... pero primero tienes que ganartelo 💗</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>confía en mí, mor... no te vas a arrepentir 🥰</t>
+          <t>confia en mi, mor... no te vas a arrepentir 🥰</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3222,12 +3222,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>tengo exactamente lo que estás pensando, amor... $250 y te prometo que vale cada centavo ✨</t>
+          <t>tengo exactamente lo que estas pensando, amor... $250 y te prometo que vale cada centavo ✨</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRECIO. Customs $250+ mínimo. Fotos $150+. Dickrates $250+.</t>
+          <t>PRECIO. Customs $250+ minimo. Fotos $150+. Dickrates $250+.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>¿eso quieres, mor? ay... puede que tenga algo especial para ti 💗</t>
+          <t>eso quieres, mor? ay... puede que tenga algo especial para ti 💗</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>lo tengo especial para ti, mor... $250 y es algo que nadie más va a ver ✨</t>
+          <t>lo tengo especial para ti, mor... $250 y es algo que nadie mas va a ver ✨</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>confía en mí, amor... me vas a agradecer 🥰</t>
+          <t>confia en mi, amor... me vas a agradecer 🥰</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>lo que sí tengo es algo que nadie vio nunca y creo que es mejor que lo que pediste, mor ✨</t>
+          <t>lo que si tengo es algo que nadie vio nunca y creo que es mejor que lo que pediste, mor ✨</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>eso exacto no tengo, amor... pero tengo algo que te va a gustar todavía más 💗</t>
+          <t>eso exacto no tengo, amor... pero tengo algo que te va a gustar todavia mas 💗</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>es algo exclusivo que nadie más vio... ¿quieres? ✨</t>
+          <t>es algo exclusivo que nadie mas vio... quieres? ✨</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>no tengo eso especifico, mor... pero lo que sí tengo te va a encantar 💗</t>
+          <t>no tengo eso especifico, mor... pero lo que si tengo te va a encantar 💗</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3608,35 +3608,35 @@
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>tengo 21, soy jovencita pero he vivido mucho... me tocó crecer rápido 💗</t>
+          <t>tengo 21, soy jovencita pero he vivido mucho... me toco crecer rapido 💗</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Límites de caracteres
+          <t>Limites de caracteres
 Name: Hasta 64 caracteres
 Tag: Hasta 32 caracteres
 Text: Hasta 1000 caracteres
 Note: Hasta 246 caracteres
-Cada hoja funciona como un tag. Simplemente reemplaza el nombre de la hoja con el nombre del tag deseado, y todos los scripts de la hoja se asignarán automáticamente a ese tag al importar.</t>
+Cada hoja funciona como un tag. Simplemente reemplaza el nombre de la hoja con el nombre del tag deseado, y todos los scripts de la hoja se asignaran automaticamente a ese tag al importar.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>Ubicación</t>
+          <t>Ubicacion</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>soy de Venezuela pero vivo en Medellín, me vine solita a empezar de nuevo ✨</t>
+          <t>soy de Venezuela pero vivo en Medellin, me vine solita a empezar de nuevo ✨</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>NUNCA nombrar barrio o dirección específica.</t>
+          <t>NUNCA nombrar barrio o direccion especifica.</t>
         </is>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>me crié en una finca, rodeada de naturaleza y animalitos... eso me hizo la persona que soy 🥰</t>
+          <t>me crie en una finca, rodeada de naturaleza y animalitos... eso me hizo la persona que soy 🥰</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr"/>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>amo los caballos con toda mi alma, sueño con tener uno algún día ✨ y los sapos me dan pánico jaja</t>
+          <t>amo los caballos con toda mi alma, sueño con tener uno algun dia ✨ y los sapos me dan panico jaja</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr"/>
@@ -3682,12 +3682,12 @@
     <row r="7">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>Relación</t>
+          <t>Relacion</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>estoy enfocada en mí ahorita, en crecer y en conectar con gente bonita como tú 💗</t>
+          <t>estoy enfocada en mi ahorita, en crecer y en conectar con gente bonita como tu 💗</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>mi familia es lo más importante para mí, las personas más cercanas en mi vida son ellos ❤️</t>
+          <t>mi familia es lo mas importante para mi, las personas mas cercanas en mi vida son ellos ❤️</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr"/>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>no soy de fiestas ni de salir mucho, prefiero espacios tranquilitos e íntimos ✨</t>
+          <t>no soy de fiestas ni de salir mucho, prefiero espacios tranquilitos e intimos ✨</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>ay me encanta comer, no te voy a mentir 😍 no soy rígida conmigo misma, me gusta disfrutar eso</t>
+          <t>ay me encanta comer, no te voy a mentir 😍 no soy rigida conmigo misma, me gusta disfrutar eso</t>
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr"/>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>bueno pero la próxima tienes que esperarme, amor... tengo algo increíble planeado para nosotros ✨</t>
+          <t>bueno pero la proxima tienes que esperarme, amor... tengo algo increible planeado para nosotros ✨</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>pero yo todavía no termino, mor... ¿no quieres ver cómo acabo yo? 💗</t>
+          <t>pero yo todavia no termino, mor... no quieres ver como acabo yo? 💗</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>¿ya, amor? ay eso fue muy bonito 🥰</t>
+          <t>ya, amor? ay eso fue muy bonito 🥰</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>la próxima tienes que aguantar un poquito más, mor... lo que tengo planeado es mucho mejor ✨</t>
+          <t>la proxima tienes que aguantar un poquito mas, mor... lo que tengo planeado es mucho mejor ✨</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>pero espérame, amor... no terminé todavía, ¿me vas a dejar así? 🥰</t>
+          <t>pero esperame, amor... no termine todavia, me vas a dejar asi? 🥰</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ay ¿ya? eso fue hermoso, mor... ¿fue por mí? 💗</t>
+          <t>ay ya? eso fue hermoso, mor... fue por mi? 💗</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>ENVIAR PPV foot fetish. Precio según escalera actual.</t>
+          <t>ENVIAR PPV foot fetish. Precio segun escalera actual.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>¿quieres ver, mor? tengo unas cositas que creo que te van a encantar... ✨</t>
+          <t>quieres ver, mor? tengo unas cositas que creo que te van a encantar... ✨</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ay amor, ¿te gusta eso? a mí me encanta que te guste... tengo unas fotitos especiales 💗</t>
+          <t>ay amor, te gusta eso? a mi me encanta que te guste... tengo unas fotitos especiales 💗</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>tengo unas fotitos y cositas especiales que nunca publiqué... ¿quieres verlas? ✨</t>
+          <t>tengo unas fotitos y cositas especiales que nunca publique... quieres verlas? ✨</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>me encanta que te gusten mis piececitos, mor 💗 a mí me gusta mucho cuidarlos</t>
+          <t>me encanta que te gusten mis piececitos, mor 💗 a mi me gusta mucho cuidarlos</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>solo aguanta un ratito más por mí, mor... lo último que veas va a ser especial 🥰</t>
+          <t>solo aguanta un ratito mas por mi, mor... lo ultimo que veas va a ser especial 🥰</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>espérame amor... tengo algo más y quiero que lo veas antes de que terminemos ✨</t>
+          <t>esperame amor... tengo algo mas y quiero que lo veas antes de que terminemos ✨</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>quédate conmigo, mor... yo también estoy cerquita 💗</t>
+          <t>quedate conmigo, mor... yo tambien estoy cerquita 💗</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>quiero que terminemos juntos, amor... abre esto y déjate llevar conmigo 🥰</t>
+          <t>quiero que terminemos juntos, amor... abre esto y dejate llevar conmigo 🥰</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>por favor no termines todavía, mor... no estoy lista para que se acabe ✨</t>
+          <t>por favor no termines todavia, mor... no estoy lista para que se acabe ✨</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>todavía no, amor... quiero que esto dure un poquito más contigo 💗</t>
+          <t>todavia no, amor... quiero que esto dure un poquito mas contigo 💗</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>solo un ratito más por mí, mor... lo que viene es especial 🥰</t>
+          <t>solo un ratito mas por mi, mor... lo que viene es especial 🥰</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>no puedes mandarme eso y esperar que no haga algo al respecto, amor... espérame ✨</t>
+          <t>no puedes mandarme eso y esperar que no haga algo al respecto, amor... esperame ✨</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>ay amor, no pierdes tiempo ¿eh? jaja pero la verdad es que me gustó 🥰</t>
+          <t>ay amor, no pierdes tiempo eh? jaja pero la verdad es que me gusto 🥰</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>debería estar haciendo mis cositas pero no me puedo mover por tu culpa, mor 🥰</t>
+          <t>deberia estar haciendo mis cositas pero no me puedo mover por tu culpa, mor 🥰</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Físico.</t>
+          <t>BOOSTER. Fisico.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>¿qué me estás haciendo, mor? 🥰</t>
+          <t>que me estas haciendo, mor? 🥰</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>justo ahí... ✨</t>
+          <t>justo ahi... ✨</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4873,12 +4873,12 @@
       <c r="C2" s="9" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Límites de caracteres
+          <t>Limites de caracteres
 Name: Hasta 64 caracteres
 Tag: Hasta 32 caracteres
 Text: Hasta 1000 caracteres
 Note: Hasta 246 caracteres
-Cada hoja funciona como un tag. Simplemente reemplaza el nombre de la hoja con el nombre del tag deseado, y todos los scripts de la hoja se asignarán automáticamente a ese tag al importar.</t>
+Cada hoja funciona como un tag. Simplemente reemplaza el nombre de la hoja con el nombre del tag deseado, y todos los scripts de la hoja se asignaran automaticamente a ese tag al importar.</t>
         </is>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>ay estamos cerquita de edad, qué lindo ✨ eso es raro por aquí</t>
+          <t>ay estamos cerquita de edad, que lindo ✨ eso es raro por aqui</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr"/>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>eso está bonito, un hombre con su vida armada me parece muy atractivo 😍</t>
+          <t>eso esta bonito, un hombre con su vida armada me parece muy atractivo 😍</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr"/>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>ay en serio? eso es increíble, cuéntame más mor 🥰</t>
+          <t>ay en serio? eso es increible, cuentame mas mor 🥰</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr"/>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>a mí no me importa eso, lo que me gusta es la energía y la conexión real 💗</t>
+          <t>a mi no me importa eso, lo que me gusta es la energia y la conexion real 💗</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr"/>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>ay no, ¿también estás en Medellín? qué cosita tan bonita 😍</t>
+          <t>ay no, tambien estas en Medellin? que cosita tan bonita 😍</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr"/>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>ay qué lejos... pero la conexión real no tiene distancia, amor 💗</t>
+          <t>ay que lejos... pero la conexion real no tiene distancia, amor 💗</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr"/>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>¡eres venezolano también! ay qué bonito encontrar a alguien de casa por aquí 🥰</t>
+          <t>eres venezolano tambien! ay que bonito encontrar a alguien de casa por aqui 🥰</t>
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr"/>
@@ -5058,22 +5058,22 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>hola mor 🥰 vi algo hoy que me recordó a ti... te cuento?</t>
+          <t>hola mor 🥰 vi algo hoy que me recordo a ti... te cuento?</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Enviar 24-48 hrs después. Referencia a conversación anterior.</t>
+          <t>Enviar 24-48 hrs despues. Referencia a conversacion anterior.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Límites de caracteres
+          <t>Limites de caracteres
 Name: Hasta 64 caracteres
 Tag: Hasta 32 caracteres
 Text: Hasta 1000 caracteres
 Note: Hasta 246 caracteres
-Cada hoja funciona como un tag. Simplemente reemplaza el nombre de la hoja con el nombre del tag deseado, y todos los scripts de la hoja se asignarán automáticamente a ese tag al importar.</t>
+Cada hoja funciona como un tag. Simplemente reemplaza el nombre de la hoja con el nombre del tag deseado, y todos los scripts de la hoja se asignaran automaticamente a ese tag al importar.</t>
         </is>
       </c>
     </row>
@@ -5085,12 +5085,12 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>me acordé de ti ahorita y me dieron ganas de escribirte ✨ ¿cómo estás, amor?</t>
+          <t>me acorde de ti ahorita y me dieron ganas de escribirte ✨ como estas, amor?</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>Enviar al día siguiente — reconectar emocional, no sexual.</t>
+          <t>Enviar al dia siguiente — reconectar emocional, no sexual.</t>
         </is>
       </c>
     </row>
@@ -5102,12 +5102,12 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>ay mor, estuve pensando en lo de antes... ¿estás libre? me gusta mucho hablar contigo 💗</t>
+          <t>ay mor, estuve pensando en lo de antes... estas libre? me gusta mucho hablar contigo 💗</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>Enviar 6-12 hrs después de que la charla muera.</t>
+          <t>Enviar 6-12 hrs despues de que la charla muera.</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>está bien amor, no te preocupes... me gusta hablar contigo igual 💗 aquí estoy siempre</t>
+          <t>esta bien amor, no te preocupes... me gusta hablar contigo igual 💗 aqui estoy siempre</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>de verdad quiero que lo veas, mor... no sé cuándo me vuelva a sentir así con alguien ✨</t>
+          <t>de verdad quiero que lo veas, mor... no se cuando me vuelva a sentir asi con alguien ✨</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>amor, esto lo hice especialmente por lo que me hiciste sentir... es algo muy personal para mí 💗</t>
+          <t>amor, esto lo hice especialmente por lo que me hiciste sentir... es algo muy personal para mi 💗</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>tranquilo amor, no pasa nada... me gusta estar aquí contigo y ya 💗</t>
+          <t>tranquilo amor, no pasa nada... me gusta estar aqui contigo y ya 💗</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>es que no todos ven estas cositas... esto es solo para alguien con quien me sienta así de conectada 🥰</t>
+          <t>es que no todos ven estas cositas... esto es solo para alguien con quien me sienta asi de conectada 🥰</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>me da cosita que no lo veas, mor... de verdad fue algo único lo que me hiciste sentir ✨</t>
+          <t>me da cosita que no lo veas, mor... de verdad fue algo unico lo que me hiciste sentir ✨</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>amor, es que esto me costó mucho hacerlo y lo hice pensando en ti... para mí tiene un valor especial 💗</t>
+          <t>amor, es que esto me costo mucho hacerlo y lo hice pensando en ti... para mi tiene un valor especial 💗</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>tranquilo mor, no te preocupes por eso... sigamos hablando que me gusta tu compañía 🥰</t>
+          <t>tranquilo mor, no te preocupes por eso... sigamos hablando que me gusta tu compañia 🥰</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no te preocupes amor, lo importante es que estemos aquí juntos 🥰</t>
+          <t>no te preocupes amor, lo importante es que estemos aqui juntos 🥰</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>los hombres que de verdad aprecian lo que hago nunca piden descuento, mor ✨ y yo sé que tú eres de esos</t>
+          <t>los hombres que de verdad aprecian lo que hago nunca piden descuento, mor ✨ y yo se que tu eres de esos</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>amor, no hago descuentos porque para mí cada cosita que comparto es especial y personal 💗</t>
+          <t>amor, no hago descuentos porque para mi cada cosita que comparto es especial y personal 💗</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">

--- a/dari-urdaneta/Dari_Complete_Infloww.xlsx
+++ b/dari-urdaneta/Dari_Complete_Infloww.xlsx
@@ -561,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>descansa bonito mor, sueña lindo ✨ mañana me cuentas como amaneciste 💗</t>
+          <t>que descanses lindo mor, portate bien ✨ mañana quiero que me cuentes que soñaste 💗</t>
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B35" s="8" t="inlineStr">
         <is>
-          <t>bueno amor, aqui estoy para ti siempre que quieras hablar... me gusta esta conexion 🥰</t>
+          <t>bueno papi, me encanta esta conversacion 🥰 aqui voy a estar cuando quieras hablar, si? me haces el dia ✨</t>
         </is>
       </c>
       <c r="C35" s="8" t="inlineStr">
@@ -1188,168 +1188,253 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>R-10</t>
+          <t>R-10b</t>
         </is>
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>es que normalmente la gente escribe y ya, pero tu de verdad te tomas el tiempo de hablar conmigo y eso se siente bonito 💗</t>
+          <t>como que de verdad te importa lo que digo y eso se siente bonito 💗</t>
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
-          <t>Ego boost emocional. El es especial.</t>
+          <t>Enviar inmediatamente despues de R-10a, sin esperar respuesta.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
-          <t>R-9</t>
+          <t>R-10a</t>
         </is>
       </c>
       <c r="B37" s="8" t="inlineStr">
         <is>
-          <t>ay mor me gusta mucho hablar contigo ❤️ de verdad siento que eres diferente... como que me da paz</t>
+          <t>es que la mayoria de la gente solo escribe por escribir, pero contigo es distinto...</t>
         </is>
       </c>
       <c r="C37" s="8" t="inlineStr">
         <is>
-          <t>Validacion emocional profunda. 'Eres diferente'.</t>
+          <t>Ego boost profundo. El es especial.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
-          <t>R-8</t>
+          <t>R-9</t>
         </is>
       </c>
       <c r="B38" s="8" t="inlineStr">
         <is>
-          <t>yo hoy estuve entrenando un ratito y despues comiendito algo rico... tururu ✨ a mi me encanta comer, no te voy a mentir 😍</t>
+          <t>ay mor de verdad que hablar contigo me pone contenta ❤️ como que siento que me entiendes</t>
         </is>
       </c>
       <c r="C38" s="8" t="inlineStr">
         <is>
-          <t>Tururu moment. Compartir cotidianidad. Diminutivos.</t>
+          <t>Validacion emocional. 'Eres diferente' implicito.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>R-7</t>
+          <t>R-8b</t>
         </is>
       </c>
       <c r="B39" s="8" t="inlineStr">
         <is>
-          <t>y como fue tu dia hoy? cuentame todito, amor 💗</t>
+          <t>yo prefiero una peliculita en la cama con comidita rica 💗</t>
         </is>
       </c>
       <c r="C39" s="8" t="inlineStr">
         <is>
-          <t>Preguntar por su dia. Mostrar que importa.</t>
+          <t>Enviar inmediatamente despues de R-8a, sin esperar respuesta.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>R-6</t>
+          <t>R-8a</t>
         </is>
       </c>
       <c r="B40" s="8" t="inlineStr">
         <is>
-          <t>ay me encanta eso ✨ se nota que eres un hombre con buena energia... eso me gusta mucho</t>
+          <t>es que a mi me gustan las cosas tranquilitas, amor... nada de fiestas ni eso</t>
         </is>
       </c>
       <c r="C40" s="8" t="inlineStr">
         <is>
-          <t>Validar lo que dice. Ego boost suave. Reaccionar con interes.</t>
+          <t>Mostrar su personalidad calmada. Diminutivos.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
-          <t>R-5</t>
+          <t>R-7b</t>
         </is>
       </c>
       <c r="B41" s="8" t="inlineStr">
         <is>
-          <t>y tu cuentame mor, que es lo que mas te gusta hacer? me da curiosidad saber de ti 🥰</t>
+          <t>es que cocinar me relaja un monton 😍</t>
         </is>
       </c>
       <c r="C41" s="8" t="inlineStr">
         <is>
-          <t>Pregunta abierta. Interes genuino.</t>
+          <t>Enviar inmediatamente despues de R-7a, sin esperar respuesta.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>R-4</t>
+          <t>R-7a</t>
         </is>
       </c>
       <c r="B42" s="8" t="inlineStr">
         <is>
-          <t>me crie en una finca rodeada de animalitos y naturaleza, por eso soy asi de tranquilita 💗 amo los caballos, sueño con tener uno algun dia ✨</t>
+          <t>yo estuve haciendo ejercicio un ratico y despues me puse a cocinar algo rico... tururu ✨</t>
         </is>
       </c>
       <c r="C42" s="8" t="inlineStr">
         <is>
-          <t>Compartir algo personal genuino. Crear conexion.</t>
+          <t>Tururu moment. Diminutivo 'ratico'. Cotidianidad.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
         <is>
-          <t>R-3</t>
+          <t>R-6</t>
         </is>
       </c>
       <c r="B43" s="8" t="inlineStr">
         <is>
-          <t>que lindo 🥰 yo soy de Venezuela pero ahorita vivo en Medellin... me vine solita a empezar de nuevo y la verdad ha sido una aventura bonita</t>
+          <t>oye amor y que hiciste hoy? cuentame despacito que quiero escucharte 💗</t>
         </is>
       </c>
       <c r="C43" s="8" t="inlineStr">
         <is>
-          <t>Si nombra un lugar que ella conoce, conectar.</t>
+          <t>Preguntar por su dia. Diminutivo 'despacito'.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
         <is>
-          <t>R-2</t>
+          <t>R-5</t>
         </is>
       </c>
       <c r="B44" s="8" t="inlineStr">
         <is>
-          <t>ay que bonito eso ✨ y de donde eres, amor?</t>
+          <t>ay me encanta eso 🥰 se nota que eres de buen corazon... eso me llama mucho la atencion ✨</t>
         </is>
       </c>
       <c r="C44" s="8" t="inlineStr">
         <is>
-          <t>Reaccionar genuinamente. Mostrar interes real. Devolver pregunta.</t>
+          <t>Validar lo que dice. Ego boost suave.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="8" t="inlineStr">
         <is>
+          <t>R-4b</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>tu tienes mascotas, mor?</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>Enviar inmediatamente despues de R-4a, sin esperar respuesta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
+        <is>
+          <t>R-4a</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>alla en la finca de mi familia habia caballos y yo me la pasaba con ellos... sueño con tener uno propio algun dia 💗</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>Compartir algo personal genuino. Crear conexion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="inlineStr">
+        <is>
+          <t>R-3b</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>fue dificil dejar todo pero tambien fue lo mas valiente que he hecho</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>Enviar inmediatamente despues de R-3a, sin esperar respuesta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="inlineStr">
+        <is>
+          <t>R-3a</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>que lindo ✨ yo naci en Venezuela pero me vine a Colombia hace un tiempito...</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>Si nombra un lugar que ella conoce, conectar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="inlineStr">
+        <is>
+          <t>R-2</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>ay que bonito 🥰 oye y tu de donde eres? es que quiero saber todito de ti</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
+        <is>
+          <t>Interes genuino. Diminutivo 'todito'. Devolver pregunta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="inlineStr">
+        <is>
           <t>R-1</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>hola mor 💗 ay que lindo que estes aqui... cuentame, como estas?</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>hola amor 💗 que alegria verte por aqui... como te sientes hoy?</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t>Agregar su NOMBRE si se conoce. NUNCA decir cariño/cielo/bebe/princesa. SOLO mor/amor/papi.</t>
         </is>
